--- a/Project Plan Timeline.xlsx
+++ b/Project Plan Timeline.xlsx
@@ -1433,7 +1433,7 @@
   </sheetPr>
   <dimension ref="B1:CU60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="61" zoomScaleNormal="61" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
